--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月开发计划'!$A$1:$XDT$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月开发计划'!$A$1:$XDT$54</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="146">
   <si>
     <t>功能模块</t>
   </si>
@@ -107,9 +107,6 @@
     <t>系统</t>
   </si>
   <si>
-    <t>配件SKU、供应商、保险公司、维修工时项目、套餐、计次卡、存储卡分机构及租户查询优化</t>
-  </si>
-  <si>
     <t>丁龄勃</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>2019.7.04</t>
-  </si>
-  <si>
-    <t>品牌查询接口开发</t>
   </si>
   <si>
     <t>APP调用品牌查询的接口</t>
@@ -582,6 +576,41 @@
   </si>
   <si>
     <t>2019.7.31</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间调度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间管理统计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间管理明细</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌查询接口开发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件SKU、供应商、保险公司、维修工时项目、套餐、计次卡、储值卡分机构及租户查询优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件SKU 本租户和orgid=0   完成
+供应商  本租户和orgid=0   完成
+保险公司 本店             完成
+维修工时项目 本租户共享和本店，钣喷项目有一份orgid=0的数据
+套餐     本租户共享和本店
+计次卡   本租户共享和本店
+储值卡   本租户共享和本店
+客户车辆 本租户</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +678,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +694,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +830,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,6 +1032,196 @@
         <a:xfrm>
           <a:off x="0" y="13030200"/>
           <a:ext cx="6824345" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>196661</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="30346651"/>
+          <a:ext cx="7530911" cy="4057650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>146904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="34632900"/>
+          <a:ext cx="7591424" cy="4090254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>157168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2" y="38747700"/>
+          <a:ext cx="7610473" cy="4100518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>167434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="43033951"/>
+          <a:ext cx="7629524" cy="4110783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>11378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47320199"/>
+          <a:ext cx="7658100" cy="4126179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1274,11 +1520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XDT51"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:XDT54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1315,89 +1561,89 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="11"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A3" s="16"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A4" s="16"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A6" s="16"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="11" t="s">
         <v>16</v>
@@ -1415,7 +1661,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="11" t="s">
         <v>20</v>
@@ -1433,7 +1679,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="11" t="s">
         <v>21</v>
@@ -1449,7 +1695,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="11" t="s">
         <v>23</v>
@@ -1465,7 +1711,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="11" t="s">
         <v>24</v>
@@ -1481,7 +1727,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A12" s="17"/>
       <c r="B12" s="11" t="s">
         <v>26</v>
@@ -1497,97 +1743,99 @@
       <c r="G12" s="13"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="36">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
       <c r="A13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>131</v>
+      <c r="E13" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A14" s="16"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A15" s="16"/>
-      <c r="B15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
+      <c r="B15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>32</v>
+      <c r="E15" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>32</v>
+      <c r="E16" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>9</v>
@@ -1601,15 +1849,15 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="16"/>
-      <c r="B19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>132</v>
+      <c r="B19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -1617,15 +1865,15 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="16"/>
-      <c r="B20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>131</v>
+      <c r="B20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -1634,14 +1882,14 @@
     <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
       <c r="A21" s="16"/>
       <c r="B21" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -1649,15 +1897,15 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="16"/>
-      <c r="B22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>133</v>
+      <c r="B22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -1666,14 +1914,14 @@
     <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -1682,23 +1930,23 @@
     <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
@@ -1714,14 +1962,14 @@
     <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -1730,84 +1978,84 @@
     <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -1815,17 +2063,17 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
       <c r="A32" s="16"/>
-      <c r="B32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>132</v>
+      <c r="B32" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
@@ -1834,14 +2082,14 @@
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -1850,32 +2098,32 @@
     <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -1884,25 +2132,25 @@
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A36" s="16"/>
       <c r="B36" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A37" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11" t="s">
@@ -1915,114 +2163,114 @@
       <c r="G37" s="13"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A40" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A41" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
@@ -2035,123 +2283,166 @@
       <c r="G44" s="13"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A46" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>125</v>
+      <c r="E46" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A48" s="17"/>
-      <c r="B48" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>125</v>
+      <c r="B48" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="23.25" customHeight="1">
+    <row r="49" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A49" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" ht="23.25" customHeight="1">
+    <row r="50" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="23.25" customHeight="1">
+    <row r="51" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A51" s="17"/>
       <c r="B51" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="11"/>
     </row>
+    <row r="52" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+      <c r="A52" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+      <c r="A53" s="16"/>
+      <c r="B53" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+      <c r="A54" s="17"/>
+      <c r="B54" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <autoFilter ref="A1:XDT54">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="丁龄勃"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="7">
+    <mergeCell ref="A52:A54"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A13:A36"/>
@@ -2161,7 +2452,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2170,8 +2461,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:E175"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2182,50 +2473,50 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2240,62 +2531,62 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -2310,192 +2601,192 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
   <si>
     <t>功能模块</t>
   </si>
@@ -611,6 +611,41 @@
 计次卡   本租户共享和本店
 储值卡   本租户共享和本店
 客户车辆 本租户</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件品牌</t>
+  </si>
+  <si>
+    <t>配件分类</t>
+  </si>
+  <si>
+    <t>配件提成</t>
+  </si>
+  <si>
+    <t>门店管理</t>
+  </si>
+  <si>
+    <t>预约参数</t>
+  </si>
+  <si>
+    <t>dms_partBrand_Mgr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dms_partType_Mgr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dms_part_set</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dms_Shop_Mgr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dms_apm_params</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,15 +857,6 @@
     <xf numFmtId="58" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -844,6 +870,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1521,10 +1559,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:XDT54"/>
+  <dimension ref="A1:XDT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1562,17 +1600,17 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="13"/>
@@ -1580,15 +1618,15 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="13"/>
@@ -1596,15 +1634,15 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="13"/>
@@ -1612,15 +1650,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="13"/>
@@ -1628,15 +1666,15 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="13"/>
@@ -1644,7 +1682,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
@@ -1662,7 +1700,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
@@ -1680,7 +1718,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
@@ -1696,7 +1734,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1712,7 +1750,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
@@ -1728,7 +1766,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
@@ -1744,19 +1782,19 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>129</v>
       </c>
       <c r="F13" s="13"/>
@@ -1764,15 +1802,15 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="13"/>
@@ -1780,15 +1818,15 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="13"/>
@@ -1796,15 +1834,15 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="13"/>
@@ -1812,7 +1850,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="11" t="s">
         <v>34</v>
       </c>
@@ -1830,7 +1868,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A18" s="16"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="11" t="s">
         <v>143</v>
       </c>
@@ -1848,15 +1886,15 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F19" s="13"/>
@@ -1864,15 +1902,15 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="16" t="s">
         <v>129</v>
       </c>
       <c r="F20" s="13"/>
@@ -1880,7 +1918,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A21" s="16"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="11" t="s">
         <v>40</v>
       </c>
@@ -1896,15 +1934,15 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="16" t="s">
         <v>131</v>
       </c>
       <c r="F22" s="13"/>
@@ -1912,7 +1950,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="16"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
@@ -1928,7 +1966,7 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="16"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="11" t="s">
         <v>43</v>
       </c>
@@ -1944,7 +1982,7 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A25" s="16"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="11" t="s">
         <v>44</v>
       </c>
@@ -1960,7 +1998,7 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="16"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="11" t="s">
         <v>45</v>
       </c>
@@ -1976,7 +2014,7 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="16"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="11" t="s">
         <v>46</v>
       </c>
@@ -1992,7 +2030,7 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A28" s="16"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="11" t="s">
         <v>47</v>
       </c>
@@ -2010,7 +2048,7 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A29" s="16"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="11" t="s">
         <v>50</v>
       </c>
@@ -2026,7 +2064,7 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A30" s="16"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="11" t="s">
         <v>51</v>
       </c>
@@ -2044,7 +2082,7 @@
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A31" s="16"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="11" t="s">
         <v>54</v>
       </c>
@@ -2062,17 +2100,17 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="16" t="s">
         <v>130</v>
       </c>
       <c r="F32" s="13"/>
@@ -2080,7 +2118,7 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="16"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="11" t="s">
         <v>59</v>
       </c>
@@ -2096,7 +2134,7 @@
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="16"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="11" t="s">
         <v>60</v>
       </c>
@@ -2114,7 +2152,7 @@
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A35" s="16"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="11" t="s">
         <v>62</v>
       </c>
@@ -2130,7 +2168,7 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="16"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="11" t="s">
         <v>64</v>
       </c>
@@ -2146,7 +2184,7 @@
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -2164,7 +2202,7 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A38" s="16"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="11" t="s">
         <v>67</v>
       </c>
@@ -2216,7 +2254,7 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -2236,7 +2274,7 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A42" s="16"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="11" t="s">
         <v>78</v>
       </c>
@@ -2252,7 +2290,7 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A43" s="16"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="11" t="s">
         <v>79</v>
       </c>
@@ -2268,7 +2306,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A44" s="16"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="11" t="s">
         <v>80</v>
       </c>
@@ -2302,17 +2340,17 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="22" t="s">
+      <c r="C46" s="15"/>
+      <c r="D46" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="16" t="s">
         <v>123</v>
       </c>
       <c r="F46" s="13"/>
@@ -2320,7 +2358,7 @@
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A47" s="16"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="11" t="s">
         <v>127</v>
       </c>
@@ -2336,15 +2374,15 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="22" t="s">
+      <c r="C48" s="15"/>
+      <c r="D48" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="16" t="s">
         <v>123</v>
       </c>
       <c r="F48" s="13"/>
@@ -2352,7 +2390,7 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -2369,7 +2407,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A50" s="16"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="11" t="s">
         <v>89</v>
       </c>
@@ -2384,7 +2422,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A51" s="17"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="11" t="s">
         <v>90</v>
       </c>
@@ -2399,7 +2437,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="20" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -2412,7 +2450,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A53" s="16"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="11" t="s">
         <v>142</v>
       </c>
@@ -2423,7 +2461,7 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A54" s="17"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="11" t="s">
         <v>141</v>
       </c>
@@ -2432,6 +2470,46 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="23.25" customHeight="1">
+      <c r="B57" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="23.25" customHeight="1">
+      <c r="B58" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="23.25" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="23.25" customHeight="1">
+      <c r="B60" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="23.25" customHeight="1">
+      <c r="B61" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:XDT54">

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19935" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="7月开发计划" sheetId="12" r:id="rId1"/>
@@ -872,6 +872,9 @@
     <xf numFmtId="58" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -880,9 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,7 +1561,7 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:XDT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -1600,7 +1600,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1618,7 +1618,7 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -1802,7 +1802,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="15" t="s">
         <v>33</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="11" t="s">
         <v>34</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="11" t="s">
         <v>143</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="17" t="s">
         <v>38</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
         <v>39</v>
       </c>
@@ -1918,7 +1918,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="11" t="s">
         <v>40</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="11" t="s">
         <v>43</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="11" t="s">
         <v>44</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="11" t="s">
         <v>45</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="11" t="s">
         <v>46</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="11" t="s">
         <v>47</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="11" t="s">
         <v>50</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="11" t="s">
         <v>51</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A31" s="21"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="11" t="s">
         <v>54</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A32" s="21"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="15" t="s">
         <v>57</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="21"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="11" t="s">
         <v>59</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="21"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="11" t="s">
         <v>60</v>
       </c>
@@ -2152,7 +2152,7 @@
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A35" s="21"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="11" t="s">
         <v>62</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="21"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="11" t="s">
         <v>64</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -2202,7 +2202,7 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A38" s="21"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="11" t="s">
         <v>67</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -2274,7 +2274,7 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A42" s="21"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="11" t="s">
         <v>78</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A43" s="21"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="11" t="s">
         <v>79</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A44" s="21"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="11" t="s">
         <v>80</v>
       </c>
@@ -2340,7 +2340,7 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="21" t="s">
         <v>84</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -2358,7 +2358,7 @@
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A47" s="21"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="11" t="s">
         <v>127</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="15" t="s">
         <v>87</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -2407,7 +2407,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A50" s="21"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="11" t="s">
         <v>89</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A51" s="22"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="11" t="s">
         <v>90</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -2450,7 +2450,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A53" s="21"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="11" t="s">
         <v>142</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="23.25" hidden="1" customHeight="1">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="11" t="s">
         <v>141</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="B57" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="20" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
       <c r="B58" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="20" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       <c r="B59" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="20" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       <c r="B60" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="20" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       <c r="B61" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="20" t="s">
         <v>150</v>
       </c>
     </row>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
   <si>
     <t>功能模块</t>
   </si>
@@ -646,6 +646,10 @@
   </si>
   <si>
     <t>dms_apm_params</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册认证为汽修店、汽配店、汽贸店、汽贸汽修综合店、变速箱维修店</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1561,8 +1565,8 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:XDT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1887,14 +1891,14 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>130</v>
       </c>
       <c r="F19" s="13"/>
@@ -1919,14 +1923,14 @@
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
       <c r="A21" s="22"/>
-      <c r="B21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
+      <c r="B21" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="18" t="s">
         <v>134</v>
       </c>
       <c r="F21" s="13"/>
@@ -1951,14 +1955,14 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="18" t="s">
         <v>132</v>
       </c>
       <c r="F23" s="13"/>
@@ -1967,14 +1971,14 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="18" t="s">
         <v>133</v>
       </c>
       <c r="F24" s="13"/>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -1565,8 +1565,8 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:XDT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1685,7 +1685,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="11" t="s">
         <v>16</v>
@@ -1703,7 +1703,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
         <v>20</v>
@@ -1721,7 +1721,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
         <v>21</v>
@@ -1737,7 +1737,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="11" t="s">
         <v>23</v>
@@ -1785,7 +1785,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="108" hidden="1">
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="15" t="s">
         <v>30</v>
@@ -1821,7 +1821,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="15" t="s">
         <v>32</v>
@@ -1837,7 +1837,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="15" t="s">
         <v>33</v>
@@ -1889,7 +1889,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
         <v>38</v>
@@ -1905,7 +1905,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
         <v>39</v>
@@ -1921,7 +1921,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
       <c r="A21" s="22"/>
       <c r="B21" s="17" t="s">
         <v>156</v>
@@ -1937,7 +1937,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="15" t="s">
         <v>41</v>
@@ -1953,7 +1953,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="17" t="s">
         <v>42</v>
@@ -1969,7 +1969,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="17" t="s">
         <v>43</v>
@@ -2001,7 +2001,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="11" t="s">
         <v>45</v>
@@ -2017,7 +2017,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="11" t="s">
         <v>46</v>
@@ -2103,7 +2103,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
       <c r="A32" s="22"/>
       <c r="B32" s="15" t="s">
         <v>57</v>
@@ -2121,7 +2121,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="11" t="s">
         <v>59</v>
@@ -2137,7 +2137,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="11" t="s">
         <v>60</v>
@@ -2171,7 +2171,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="11" t="s">
         <v>64</v>
@@ -2221,7 +2221,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>74</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A42" s="22"/>
       <c r="B42" s="11" t="s">
         <v>78</v>
@@ -2293,7 +2293,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A43" s="22"/>
       <c r="B43" s="11" t="s">
         <v>79</v>
@@ -2519,7 +2519,7 @@
   <autoFilter ref="A1:XDT54">
     <filterColumn colId="3">
       <filters>
-        <filter val="丁龄勃"/>
+        <filter val="梁升启"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -1565,8 +1565,8 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:XDT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1685,7 +1685,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="11" t="s">
         <v>16</v>
@@ -1703,7 +1703,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
         <v>20</v>
@@ -1721,7 +1721,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
         <v>21</v>
@@ -1737,7 +1737,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="11" t="s">
         <v>23</v>
@@ -1785,7 +1785,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="108" hidden="1">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="15" t="s">
         <v>30</v>
@@ -1821,7 +1821,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="15" t="s">
         <v>32</v>
@@ -1837,7 +1837,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="15" t="s">
         <v>33</v>
@@ -1889,7 +1889,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
         <v>38</v>
@@ -1905,7 +1905,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
         <v>39</v>
@@ -1921,7 +1921,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
       <c r="A21" s="22"/>
       <c r="B21" s="17" t="s">
         <v>156</v>
@@ -1937,7 +1937,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="15" t="s">
         <v>41</v>
@@ -1953,7 +1953,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="17" t="s">
         <v>42</v>
@@ -1969,7 +1969,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="17" t="s">
         <v>43</v>
@@ -2001,7 +2001,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="11" t="s">
         <v>45</v>
@@ -2017,7 +2017,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="11" t="s">
         <v>46</v>
@@ -2103,7 +2103,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
       <c r="A32" s="22"/>
       <c r="B32" s="15" t="s">
         <v>57</v>
@@ -2121,7 +2121,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="11" t="s">
         <v>59</v>
@@ -2137,7 +2137,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="11" t="s">
         <v>60</v>
@@ -2171,7 +2171,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="11" t="s">
         <v>64</v>
@@ -2221,7 +2221,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>74</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A42" s="22"/>
       <c r="B42" s="11" t="s">
         <v>78</v>
@@ -2293,7 +2293,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A43" s="22"/>
       <c r="B43" s="11" t="s">
         <v>79</v>
@@ -2519,7 +2519,7 @@
   <autoFilter ref="A1:XDT54">
     <filterColumn colId="3">
       <filters>
-        <filter val="梁升启"/>
+        <filter val="丁龄勃"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -1565,8 +1565,8 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:XDT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1621,7 +1621,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="22"/>
       <c r="B3" s="15" t="s">
         <v>11</v>
@@ -1637,7 +1637,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="22"/>
       <c r="B4" s="15" t="s">
         <v>13</v>
@@ -1669,7 +1669,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="22"/>
       <c r="B6" s="15" t="s">
         <v>15</v>
@@ -1753,23 +1753,23 @@
       <c r="G10" s="13"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="11" t="s">
         <v>26</v>
@@ -1785,7 +1785,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="108" hidden="1">
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
@@ -1855,16 +1855,16 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="13"/>
@@ -1873,23 +1873,23 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
         <v>38</v>
@@ -1905,7 +1905,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
         <v>39</v>
@@ -1921,7 +1921,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
       <c r="A21" s="22"/>
       <c r="B21" s="17" t="s">
         <v>156</v>
@@ -1937,7 +1937,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="15" t="s">
         <v>41</v>
@@ -1953,7 +1953,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="17" t="s">
         <v>42</v>
@@ -1969,7 +1969,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="17" t="s">
         <v>43</v>
@@ -1985,7 +1985,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="11" t="s">
         <v>44</v>
@@ -2001,7 +2001,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="11" t="s">
         <v>45</v>
@@ -2017,7 +2017,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="11" t="s">
         <v>46</v>
@@ -2035,16 +2035,16 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="13"/>
@@ -2103,7 +2103,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
       <c r="A32" s="22"/>
       <c r="B32" s="15" t="s">
         <v>57</v>
@@ -2121,7 +2121,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="11" t="s">
         <v>59</v>
@@ -2137,7 +2137,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="11" t="s">
         <v>60</v>
@@ -2171,7 +2171,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="11" t="s">
         <v>64</v>
@@ -2191,14 +2191,14 @@
       <c r="A37" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="13"/>
@@ -2207,14 +2207,14 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A38" s="22"/>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="16" t="s">
         <v>68</v>
       </c>
       <c r="F38" s="13"/>
@@ -2243,14 +2243,14 @@
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F40" s="13"/>
@@ -2279,14 +2279,14 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A42" s="22"/>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F42" s="13"/>
@@ -2295,30 +2295,30 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A43" s="22"/>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A44" s="22"/>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="13"/>
@@ -2519,7 +2519,7 @@
   <autoFilter ref="A1:XDT54">
     <filterColumn colId="3">
       <filters>
-        <filter val="丁龄勃"/>
+        <filter val="莫敏兰"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -603,6 +603,45 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>配件品牌</t>
+  </si>
+  <si>
+    <t>配件分类</t>
+  </si>
+  <si>
+    <t>配件提成</t>
+  </si>
+  <si>
+    <t>门店管理</t>
+  </si>
+  <si>
+    <t>预约参数</t>
+  </si>
+  <si>
+    <t>dms_partBrand_Mgr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dms_partType_Mgr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dms_part_set</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dms_Shop_Mgr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dms_apm_params</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册认证为汽修店、汽配店、汽贸店、汽贸汽修综合店、变速箱维修店</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>配件SKU 本租户和orgid=0   完成
 供应商  本租户和orgid=0   完成
 保险公司 本店             完成
@@ -611,45 +650,6 @@
 计次卡   本租户共享和本店
 储值卡   本租户共享和本店
 客户车辆 本租户</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件品牌</t>
-  </si>
-  <si>
-    <t>配件分类</t>
-  </si>
-  <si>
-    <t>配件提成</t>
-  </si>
-  <si>
-    <t>门店管理</t>
-  </si>
-  <si>
-    <t>预约参数</t>
-  </si>
-  <si>
-    <t>dms_partBrand_Mgr</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dms_partType_Mgr</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dms_part_set</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dms_Shop_Mgr</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dms_apm_params</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册认证为汽修店、汽配店、汽贸店、汽贸汽修综合店、变速箱维修店</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1562,11 +1562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XDT61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1603,7 +1603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="15" t="s">
         <v>14</v>
@@ -1685,7 +1685,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="11" t="s">
         <v>16</v>
@@ -1703,7 +1703,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
         <v>20</v>
@@ -1721,7 +1721,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
         <v>21</v>
@@ -1737,7 +1737,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="11" t="s">
         <v>23</v>
@@ -1785,7 +1785,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="108" hidden="1">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>144</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>29</v>
@@ -1805,7 +1805,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="15" t="s">
         <v>30</v>
@@ -1821,7 +1821,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="15" t="s">
         <v>32</v>
@@ -1837,7 +1837,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="15" t="s">
         <v>33</v>
@@ -1853,7 +1853,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="15" t="s">
         <v>34</v>
@@ -1871,7 +1871,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="15" t="s">
         <v>143</v>
@@ -1889,7 +1889,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
         <v>38</v>
@@ -1905,7 +1905,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
         <v>39</v>
@@ -1921,10 +1921,10 @@
       <c r="G20" s="13"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
       <c r="A21" s="22"/>
       <c r="B21" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17" t="s">
@@ -1937,7 +1937,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="15" t="s">
         <v>41</v>
@@ -1953,7 +1953,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="17" t="s">
         <v>42</v>
@@ -1969,7 +1969,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="17" t="s">
         <v>43</v>
@@ -2001,7 +2001,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="11" t="s">
         <v>45</v>
@@ -2017,7 +2017,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="11" t="s">
         <v>46</v>
@@ -2033,7 +2033,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
@@ -2051,7 +2051,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="22"/>
       <c r="B29" s="11" t="s">
         <v>50</v>
@@ -2067,7 +2067,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="11" t="s">
         <v>51</v>
@@ -2085,7 +2085,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="11" t="s">
         <v>54</v>
@@ -2103,7 +2103,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
       <c r="A32" s="22"/>
       <c r="B32" s="15" t="s">
         <v>57</v>
@@ -2121,7 +2121,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="11" t="s">
         <v>59</v>
@@ -2137,7 +2137,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="11" t="s">
         <v>60</v>
@@ -2155,7 +2155,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="11" t="s">
         <v>62</v>
@@ -2171,7 +2171,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="11" t="s">
         <v>64</v>
@@ -2187,7 +2187,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A37" s="21" t="s">
         <v>65</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="15" t="s">
         <v>67</v>
@@ -2221,7 +2221,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>74</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A42" s="22"/>
       <c r="B42" s="15" t="s">
         <v>78</v>
@@ -2293,7 +2293,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A43" s="22"/>
       <c r="B43" s="15" t="s">
         <v>79</v>
@@ -2325,7 +2325,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A45" s="10" t="s">
         <v>81</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A46" s="21" t="s">
         <v>84</v>
       </c>
@@ -2361,7 +2361,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="11" t="s">
         <v>127</v>
@@ -2377,7 +2377,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A48" s="23"/>
       <c r="B48" s="15" t="s">
         <v>87</v>
@@ -2393,7 +2393,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="49" spans="1:7" ht="23.25" customHeight="1">
       <c r="A49" s="21" t="s">
         <v>88</v>
       </c>
@@ -2410,7 +2410,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="50" spans="1:7" ht="23.25" customHeight="1">
       <c r="A50" s="22"/>
       <c r="B50" s="11" t="s">
         <v>89</v>
@@ -2425,7 +2425,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="51" spans="1:7" ht="23.25" customHeight="1">
       <c r="A51" s="23"/>
       <c r="B51" s="11" t="s">
         <v>90</v>
@@ -2440,7 +2440,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="52" spans="1:7" ht="23.25" customHeight="1">
       <c r="A52" s="21" t="s">
         <v>139</v>
       </c>
@@ -2453,7 +2453,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="53" spans="1:7" ht="23.25" customHeight="1">
       <c r="A53" s="22"/>
       <c r="B53" s="11" t="s">
         <v>142</v>
@@ -2464,7 +2464,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="54" spans="1:7" ht="23.25" customHeight="1">
       <c r="A54" s="23"/>
       <c r="B54" s="11" t="s">
         <v>141</v>
@@ -2477,52 +2477,46 @@
     </row>
     <row r="57" spans="1:7" ht="23.25" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="23.25" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="23.25" customHeight="1">
       <c r="B59" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="23.25" customHeight="1">
       <c r="B60" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="23.25" customHeight="1">
       <c r="B61" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XDT54">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="莫敏兰"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:XDT54"/>
   <mergeCells count="7">
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A49:A51"/>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -1565,8 +1565,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XDT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2053,14 +2053,14 @@
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="13"/>
@@ -2069,16 +2069,16 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F30" s="13"/>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="166">
   <si>
     <t>功能模块</t>
   </si>
@@ -650,6 +650,42 @@
 计次卡   本租户共享和本店
 储值卡   本租户共享和本店
 客户车辆 本租户</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助网站</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查车开单添加图片上传</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件报价提醒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>派工提醒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件报价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价完成后的提醒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1272,6 +1308,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202037</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="54006750"/>
+          <a:ext cx="9631786" cy="4286250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1563,10 +1637,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XDT61"/>
+  <dimension ref="A1:XDT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2398,7 +2472,7 @@
         <v>88</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="14" t="s">
@@ -2413,7 +2487,7 @@
     <row r="50" spans="1:7" ht="23.25" customHeight="1">
       <c r="A50" s="22"/>
       <c r="B50" s="11" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="14" t="s">
@@ -2428,7 +2502,7 @@
     <row r="51" spans="1:7" ht="23.25" customHeight="1">
       <c r="A51" s="23"/>
       <c r="B51" s="11" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="14" t="s">
@@ -2513,6 +2587,36 @@
       </c>
       <c r="C61" s="20" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="23.25" customHeight="1">
+      <c r="B64" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="23.25" customHeight="1">
+      <c r="B65" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="23.25" customHeight="1">
+      <c r="B66" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="23.25" customHeight="1">
+      <c r="B67" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="23.25" customHeight="1">
+      <c r="B68" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="23.25" customHeight="1">
+      <c r="B69" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2537,8 +2641,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:E175"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="A277" sqref="A277"/>
+    <sheetView topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -1636,11 +1636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:XDT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1677,7 +1677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="15" t="s">
         <v>14</v>
@@ -1759,7 +1759,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="11" t="s">
         <v>16</v>
@@ -1777,7 +1777,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
         <v>20</v>
@@ -1795,7 +1795,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
         <v>21</v>
@@ -1811,7 +1811,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="11" t="s">
         <v>23</v>
@@ -1859,7 +1859,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="108" hidden="1">
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="15" t="s">
         <v>30</v>
@@ -1895,7 +1895,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="15" t="s">
         <v>32</v>
@@ -1911,7 +1911,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="15" t="s">
         <v>33</v>
@@ -1927,7 +1927,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="15" t="s">
         <v>34</v>
@@ -1945,7 +1945,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="15" t="s">
         <v>143</v>
@@ -1963,7 +1963,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
         <v>38</v>
@@ -1979,7 +1979,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
         <v>39</v>
@@ -1995,7 +1995,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
       <c r="A21" s="22"/>
       <c r="B21" s="17" t="s">
         <v>155</v>
@@ -2011,7 +2011,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="15" t="s">
         <v>41</v>
@@ -2027,7 +2027,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="17" t="s">
         <v>42</v>
@@ -2043,7 +2043,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="17" t="s">
         <v>43</v>
@@ -2075,7 +2075,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="11" t="s">
         <v>45</v>
@@ -2091,7 +2091,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="11" t="s">
         <v>46</v>
@@ -2107,7 +2107,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
@@ -2125,7 +2125,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A29" s="22"/>
       <c r="B29" s="15" t="s">
         <v>50</v>
@@ -2141,7 +2141,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="15" t="s">
         <v>51</v>
@@ -2159,7 +2159,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="11" t="s">
         <v>54</v>
@@ -2177,7 +2177,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
       <c r="A32" s="22"/>
       <c r="B32" s="15" t="s">
         <v>57</v>
@@ -2195,7 +2195,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="11" t="s">
         <v>59</v>
@@ -2211,7 +2211,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="11" t="s">
         <v>60</v>
@@ -2229,7 +2229,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="11" t="s">
         <v>62</v>
@@ -2245,7 +2245,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="11" t="s">
         <v>64</v>
@@ -2261,7 +2261,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A37" s="21" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="15" t="s">
         <v>67</v>
@@ -2295,7 +2295,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>74</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A42" s="22"/>
       <c r="B42" s="15" t="s">
         <v>78</v>
@@ -2367,7 +2367,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A43" s="22"/>
       <c r="B43" s="15" t="s">
         <v>79</v>
@@ -2399,7 +2399,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A45" s="10" t="s">
         <v>81</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A46" s="21" t="s">
         <v>84</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="11" t="s">
         <v>127</v>
@@ -2451,7 +2451,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+    <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
       <c r="A48" s="23"/>
       <c r="B48" s="15" t="s">
         <v>87</v>
@@ -2467,7 +2467,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="23.25" customHeight="1">
+    <row r="49" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A49" s="21" t="s">
         <v>88</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" ht="23.25" customHeight="1">
+    <row r="50" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A50" s="22"/>
       <c r="B50" s="11" t="s">
         <v>158</v>
@@ -2499,7 +2499,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="23.25" customHeight="1">
+    <row r="51" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A51" s="23"/>
       <c r="B51" s="11" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="23.25" customHeight="1">
+    <row r="52" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A52" s="21" t="s">
         <v>139</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="23.25" customHeight="1">
+    <row r="53" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A53" s="22"/>
       <c r="B53" s="11" t="s">
         <v>142</v>
@@ -2538,7 +2538,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" ht="23.25" customHeight="1">
+    <row r="54" spans="1:7" ht="23.25" hidden="1" customHeight="1">
       <c r="A54" s="23"/>
       <c r="B54" s="11" t="s">
         <v>141</v>
@@ -2620,7 +2620,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XDT54"/>
+  <autoFilter ref="A1:XDT54">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="莫敏兰"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A49:A51"/>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19935" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19935" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="7月开发计划" sheetId="12" r:id="rId1"/>
@@ -1636,11 +1636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XDT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1677,7 +1677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="15" t="s">
         <v>14</v>
@@ -1759,43 +1759,43 @@
       <c r="G6" s="13"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="22"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="22"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
         <v>21</v>
@@ -1811,7 +1811,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="11" t="s">
         <v>23</v>
@@ -1845,21 +1845,21 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="23"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="108" hidden="1">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="15" t="s">
         <v>30</v>
@@ -1895,7 +1895,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="15" t="s">
         <v>32</v>
@@ -1911,7 +1911,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="15" t="s">
         <v>33</v>
@@ -1927,7 +1927,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="15" t="s">
         <v>34</v>
@@ -1945,7 +1945,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="15" t="s">
         <v>143</v>
@@ -1963,7 +1963,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="15" t="s">
         <v>38</v>
@@ -1979,7 +1979,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="15" t="s">
         <v>39</v>
@@ -1995,7 +1995,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
       <c r="A21" s="22"/>
       <c r="B21" s="17" t="s">
         <v>155</v>
@@ -2011,7 +2011,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="15" t="s">
         <v>41</v>
@@ -2027,7 +2027,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="17" t="s">
         <v>42</v>
@@ -2043,7 +2043,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="17" t="s">
         <v>43</v>
@@ -2061,21 +2061,21 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="18" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="11" t="s">
         <v>45</v>
@@ -2091,7 +2091,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="11" t="s">
         <v>46</v>
@@ -2107,7 +2107,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
@@ -2125,7 +2125,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="22"/>
       <c r="B29" s="15" t="s">
         <v>50</v>
@@ -2141,7 +2141,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="15" t="s">
         <v>51</v>
@@ -2159,7 +2159,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="11" t="s">
         <v>54</v>
@@ -2177,7 +2177,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="36" hidden="1">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
       <c r="A32" s="22"/>
       <c r="B32" s="15" t="s">
         <v>57</v>
@@ -2195,7 +2195,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="11" t="s">
         <v>59</v>
@@ -2211,7 +2211,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="11" t="s">
         <v>60</v>
@@ -2229,7 +2229,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="11" t="s">
         <v>62</v>
@@ -2245,7 +2245,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="11" t="s">
         <v>64</v>
@@ -2261,7 +2261,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A37" s="21" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="15" t="s">
         <v>67</v>
@@ -2295,7 +2295,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -2331,27 +2331,27 @@
       <c r="G40" s="13"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A42" s="22"/>
       <c r="B42" s="15" t="s">
         <v>78</v>
@@ -2367,7 +2367,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A43" s="22"/>
       <c r="B43" s="15" t="s">
         <v>79</v>
@@ -2399,7 +2399,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A45" s="10" t="s">
         <v>81</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A46" s="21" t="s">
         <v>84</v>
       </c>
@@ -2435,23 +2435,23 @@
       <c r="G46" s="13"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A47" s="22"/>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="14" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="16" t="s">
         <v>130</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A48" s="23"/>
       <c r="B48" s="15" t="s">
         <v>87</v>
@@ -2467,7 +2467,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="49" spans="1:7" ht="23.25" customHeight="1">
       <c r="A49" s="21" t="s">
         <v>88</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="50" spans="1:7" ht="23.25" customHeight="1">
       <c r="A50" s="22"/>
       <c r="B50" s="11" t="s">
         <v>158</v>
@@ -2499,7 +2499,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="51" spans="1:7" ht="23.25" customHeight="1">
       <c r="A51" s="23"/>
       <c r="B51" s="11" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="52" spans="1:7" ht="23.25" customHeight="1">
       <c r="A52" s="21" t="s">
         <v>139</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="53" spans="1:7" ht="23.25" customHeight="1">
       <c r="A53" s="22"/>
       <c r="B53" s="11" t="s">
         <v>142</v>
@@ -2538,7 +2538,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" ht="23.25" hidden="1" customHeight="1">
+    <row r="54" spans="1:7" ht="23.25" customHeight="1">
       <c r="A54" s="23"/>
       <c r="B54" s="11" t="s">
         <v>141</v>
@@ -2620,13 +2620,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XDT54">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="莫敏兰"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:XDT54"/>
   <mergeCells count="7">
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A49:A51"/>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
   <si>
     <t>功能模块</t>
   </si>
@@ -686,6 +686,10 @@
   </si>
   <si>
     <t>打卡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户积分系统</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +757,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,6 +785,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +933,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1639,8 +1661,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XDT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:E47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2247,8 +2269,8 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="11" t="s">
-        <v>64</v>
+      <c r="B36" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
@@ -2515,7 +2537,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="24" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -2528,7 +2550,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="11" t="s">
         <v>142</v>
       </c>
@@ -2539,7 +2561,7 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A54" s="23"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="11" t="s">
         <v>141</v>
       </c>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="171">
   <si>
     <t>功能模块</t>
   </si>
@@ -690,6 +690,22 @@
   </si>
   <si>
     <t>客户积分系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>违章查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.16</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -925,14 +941,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -943,8 +953,14 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1661,8 +1677,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XDT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1700,7 +1716,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1718,7 +1734,7 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
@@ -1734,7 +1750,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
@@ -1750,7 +1766,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
@@ -1766,7 +1782,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="22"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1782,7 +1798,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1800,7 +1816,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
@@ -1818,23 +1834,23 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="11" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1843,14 +1859,14 @@
         <v>18</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
@@ -1866,7 +1882,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
@@ -1882,7 +1898,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -1902,7 +1918,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
@@ -1918,7 +1934,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
@@ -1934,7 +1950,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="22"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="15" t="s">
         <v>33</v>
       </c>
@@ -1950,7 +1966,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="22"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="15" t="s">
         <v>34</v>
       </c>
@@ -1968,7 +1984,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="15" t="s">
         <v>143</v>
       </c>
@@ -1986,7 +2002,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="15" t="s">
         <v>38</v>
       </c>
@@ -2002,7 +2018,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="22"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
         <v>39</v>
       </c>
@@ -2018,7 +2034,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A21" s="22"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="17" t="s">
         <v>155</v>
       </c>
@@ -2034,7 +2050,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="22"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
@@ -2050,7 +2066,7 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="22"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="17" t="s">
         <v>42</v>
       </c>
@@ -2066,7 +2082,7 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="22"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="17" t="s">
         <v>43</v>
       </c>
@@ -2082,7 +2098,7 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="22"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="17" t="s">
         <v>44</v>
       </c>
@@ -2098,7 +2114,7 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="22"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="11" t="s">
         <v>45</v>
       </c>
@@ -2114,7 +2130,7 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="22"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="11" t="s">
         <v>46</v>
       </c>
@@ -2130,7 +2146,7 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="22"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
@@ -2148,7 +2164,7 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="22"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="15" t="s">
         <v>50</v>
       </c>
@@ -2164,7 +2180,7 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="22"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="15" t="s">
         <v>51</v>
       </c>
@@ -2182,7 +2198,7 @@
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="22"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="11" t="s">
         <v>54</v>
       </c>
@@ -2200,7 +2216,7 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A32" s="22"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="15" t="s">
         <v>57</v>
       </c>
@@ -2218,7 +2234,7 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="22"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="11" t="s">
         <v>59</v>
       </c>
@@ -2234,7 +2250,7 @@
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="22"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="11" t="s">
         <v>60</v>
       </c>
@@ -2252,7 +2268,7 @@
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="11" t="s">
         <v>62</v>
       </c>
@@ -2268,8 +2284,8 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="27" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="21" t="s">
         <v>166</v>
       </c>
       <c r="C36" s="11"/>
@@ -2284,7 +2300,7 @@
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -2302,7 +2318,7 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="22"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="15" t="s">
         <v>67</v>
       </c>
@@ -2329,7 +2345,7 @@
         <v>18</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -2354,7 +2370,7 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="25" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -2374,7 +2390,7 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A42" s="22"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="15" t="s">
         <v>78</v>
       </c>
@@ -2390,7 +2406,7 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A43" s="22"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="15" t="s">
         <v>79</v>
       </c>
@@ -2406,7 +2422,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="22"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="15" t="s">
         <v>80</v>
       </c>
@@ -2440,7 +2456,7 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -2458,7 +2474,7 @@
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A47" s="22"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="15" t="s">
         <v>127</v>
       </c>
@@ -2474,7 +2490,7 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="23"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="15" t="s">
         <v>87</v>
       </c>
@@ -2490,7 +2506,7 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -2507,7 +2523,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A50" s="22"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="11" t="s">
         <v>158</v>
       </c>
@@ -2522,7 +2538,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A51" s="23"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="11" t="s">
         <v>157</v>
       </c>
@@ -2537,7 +2553,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="22" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -2550,7 +2566,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A53" s="25"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="11" t="s">
         <v>142</v>
       </c>
@@ -2561,7 +2577,7 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A54" s="26"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="11" t="s">
         <v>141</v>
       </c>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19935" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19935" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="7月开发计划" sheetId="12" r:id="rId1"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月开发计划'!$A$1:$XDT$54</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="172">
   <si>
     <t>功能模块</t>
   </si>
@@ -706,6 +706,10 @@
   </si>
   <si>
     <t>2019.7.16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1677,8 +1681,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XDT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1730,7 +1734,9 @@
         <v>10</v>
       </c>
       <c r="F2" s="13"/>
-      <c r="G2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1746,7 +1752,9 @@
         <v>10</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1762,7 +1770,9 @@
         <v>10</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1778,7 +1788,9 @@
         <v>10</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1794,7 +1806,9 @@
         <v>10</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1812,7 +1826,9 @@
         <v>19</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1830,7 +1846,9 @@
         <v>19</v>
       </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1878,7 +1896,9 @@
         <v>25</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1894,7 +1914,9 @@
         <v>27</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
@@ -1914,7 +1936,9 @@
         <v>129</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1930,7 +1954,9 @@
         <v>31</v>
       </c>
       <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1946,7 +1972,9 @@
         <v>31</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1962,7 +1990,9 @@
         <v>31</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1980,7 +2010,9 @@
         <v>36</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -1998,7 +2030,9 @@
         <v>22</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2014,7 +2048,9 @@
         <v>130</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2030,7 +2066,9 @@
         <v>129</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
@@ -2062,7 +2100,9 @@
         <v>131</v>
       </c>
       <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="G22" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2099,18 +2139,20 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="26"/>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2160,7 +2202,9 @@
         <v>49</v>
       </c>
       <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2176,7 +2220,9 @@
         <v>49</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2194,7 +2240,9 @@
         <v>53</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2230,7 +2278,9 @@
         <v>130</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="G32" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2314,7 +2364,9 @@
         <v>25</v>
       </c>
       <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="G37" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2330,7 +2382,9 @@
         <v>68</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="G38" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2366,7 +2420,9 @@
         <v>73</v>
       </c>
       <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="G40" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2386,7 +2442,9 @@
         <v>77</v>
       </c>
       <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
+      <c r="G41" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2402,7 +2460,9 @@
         <v>77</v>
       </c>
       <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="G42" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2418,7 +2478,9 @@
         <v>77</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="G43" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2434,7 +2496,9 @@
         <v>25</v>
       </c>
       <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="G44" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2470,7 +2534,9 @@
         <v>123</v>
       </c>
       <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="G46" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2486,7 +2552,9 @@
         <v>130</v>
       </c>
       <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="G47" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2502,7 +2570,9 @@
         <v>123</v>
       </c>
       <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="G48" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="23.25" customHeight="1">

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -1681,8 +1681,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XDT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -881,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,12 +933,6 @@
     <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -965,6 +959,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,8 +1678,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XDT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1720,7 +1717,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1740,7 +1737,7 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="26"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1755,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="26"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
@@ -1776,7 +1773,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
@@ -1794,7 +1791,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1812,7 +1809,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="26"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1829,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
@@ -1852,7 +1849,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="26"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="11" t="s">
         <v>167</v>
       </c>
@@ -1868,7 +1865,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="26"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1884,7 +1881,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="26"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
@@ -1902,7 +1899,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
@@ -1920,7 +1917,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -1942,7 +1939,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="26"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
@@ -1960,7 +1957,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="26"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
@@ -1978,7 +1975,7 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="26"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="15" t="s">
         <v>33</v>
       </c>
@@ -1996,7 +1993,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="26"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="15" t="s">
         <v>34</v>
       </c>
@@ -2016,7 +2013,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="26"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="15" t="s">
         <v>143</v>
       </c>
@@ -2036,7 +2033,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="26"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="15" t="s">
         <v>38</v>
       </c>
@@ -2054,7 +2051,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="26"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="15" t="s">
         <v>39</v>
       </c>
@@ -2072,23 +2069,23 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A21" s="26"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="16" t="s">
         <v>134</v>
       </c>
       <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="26"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
@@ -2106,39 +2103,39 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="16" t="s">
         <v>132</v>
       </c>
       <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="16" t="s">
         <v>133</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="26"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="15" t="s">
         <v>44</v>
       </c>
@@ -2156,39 +2153,39 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="16" t="s">
         <v>134</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="16" t="s">
         <v>134</v>
       </c>
       <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="26"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
@@ -2208,7 +2205,7 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="26"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="15" t="s">
         <v>50</v>
       </c>
@@ -2226,7 +2223,7 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="26"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="15" t="s">
         <v>51</v>
       </c>
@@ -2246,25 +2243,25 @@
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A32" s="26"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="15" t="s">
         <v>57</v>
       </c>
@@ -2284,7 +2281,7 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="26"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="11" t="s">
         <v>59</v>
       </c>
@@ -2300,7 +2297,7 @@
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="26"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="11" t="s">
         <v>60</v>
       </c>
@@ -2318,15 +2315,15 @@
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F35" s="13"/>
@@ -2334,8 +2331,8 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="19" t="s">
         <v>166</v>
       </c>
       <c r="C36" s="11"/>
@@ -2350,7 +2347,7 @@
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="23" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -2370,7 +2367,7 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="26"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="15" t="s">
         <v>67</v>
       </c>
@@ -2426,7 +2423,7 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -2448,7 +2445,7 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A42" s="26"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="15" t="s">
         <v>78</v>
       </c>
@@ -2466,7 +2463,7 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A43" s="26"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="15" t="s">
         <v>79</v>
       </c>
@@ -2484,7 +2481,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="26"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="15" t="s">
         <v>80</v>
       </c>
@@ -2520,14 +2517,14 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="23" t="s">
         <v>84</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="15"/>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E46" s="16" t="s">
@@ -2540,12 +2537,12 @@
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A47" s="26"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="15" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="17" t="s">
         <v>128</v>
       </c>
       <c r="E47" s="16" t="s">
@@ -2558,12 +2555,12 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="27"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C48" s="15"/>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E48" s="16" t="s">
@@ -2576,7 +2573,7 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="23" t="s">
         <v>88</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -2593,7 +2590,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A50" s="26"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="11" t="s">
         <v>158</v>
       </c>
@@ -2608,7 +2605,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A51" s="27"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="11" t="s">
         <v>157</v>
       </c>
@@ -2623,7 +2620,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="20" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -2636,7 +2633,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A53" s="23"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="11" t="s">
         <v>142</v>
       </c>
@@ -2647,7 +2644,7 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A54" s="24"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="11" t="s">
         <v>141</v>
       </c>
@@ -2661,7 +2658,7 @@
       <c r="B57" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2669,7 +2666,7 @@
       <c r="B58" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="18" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2677,7 +2674,7 @@
       <c r="B59" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2685,7 +2682,7 @@
       <c r="B60" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="18" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2693,37 +2690,37 @@
       <c r="B61" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="18" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="23.25" customHeight="1">
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="18" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="23.25" customHeight="1">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="18" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="23.25" customHeight="1">
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="18" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="23.25" customHeight="1">
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="23.25" customHeight="1">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="18" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="23.25" customHeight="1">
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="18" t="s">
         <v>165</v>
       </c>
     </row>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="172">
   <si>
     <t>功能模块</t>
   </si>
@@ -881,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,7 +939,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,7 +960,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1678,8 +1681,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XDT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1850,14 +1853,14 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="27" t="s">
         <v>168</v>
       </c>
       <c r="F9" s="13"/>
@@ -1866,14 +1869,14 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="27" t="s">
         <v>169</v>
       </c>
       <c r="F10" s="13"/>
@@ -2081,7 +2084,9 @@
         <v>134</v>
       </c>
       <c r="F21" s="13"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2115,7 +2120,9 @@
         <v>132</v>
       </c>
       <c r="F23" s="13"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2131,7 +2138,9 @@
         <v>133</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2165,7 +2174,9 @@
         <v>134</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="26"/>
+      <c r="G26" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2181,7 +2192,9 @@
         <v>134</v>
       </c>
       <c r="F27" s="13"/>
-      <c r="G27" s="26"/>
+      <c r="G27" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
@@ -2257,7 +2270,7 @@
         <v>56</v>
       </c>
       <c r="F31" s="13"/>
-      <c r="G31" s="26"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
@@ -2282,14 +2295,14 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="24"/>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="27" t="s">
         <v>135</v>
       </c>
       <c r="F33" s="13"/>
@@ -2298,16 +2311,16 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A34" s="24"/>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="27" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="13"/>
@@ -2327,19 +2340,21 @@
         <v>63</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="G35" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A36" s="24"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="27" t="s">
         <v>138</v>
       </c>
       <c r="F36" s="13"/>
@@ -2388,14 +2403,14 @@
       <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11" t="s">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="27" t="s">
         <v>170</v>
       </c>
       <c r="F39" s="13"/>

--- a/DOC/开发计划/DMS开发计划-2019070101.xlsx
+++ b/DOC/开发计划/DMS开发计划-2019070101.xlsx
@@ -195,12 +195,6 @@
   </si>
   <si>
     <t>1、常用的，排在前面;2、不常用的 门店管理、配件品牌、配件分类、配件提成、预约参数 放在里面;</t>
-  </si>
-  <si>
-    <t>短信签名处理</t>
-  </si>
-  <si>
-    <t>充值和消费处理</t>
   </si>
   <si>
     <t>虚拟币（链车币），例查询一次EPC扣多少币</t>
@@ -689,27 +683,35 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>违章查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信签名处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值和消费处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>客户积分系统</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>违章查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.19</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.19</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.16</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -942,6 +944,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -959,12 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,8 +1683,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XDT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1720,7 +1722,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1735,12 +1737,12 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="24"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
@@ -1753,12 +1755,12 @@
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
@@ -1771,12 +1773,12 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
@@ -1789,12 +1791,12 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
@@ -1807,12 +1809,12 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
@@ -1827,12 +1829,12 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
@@ -1847,44 +1849,44 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>168</v>
+      <c r="E9" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>169</v>
+      <c r="E10" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
@@ -1897,12 +1899,12 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
@@ -1915,34 +1917,34 @@
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
@@ -1955,12 +1957,12 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
@@ -1973,12 +1975,12 @@
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="15" t="s">
         <v>33</v>
       </c>
@@ -1991,12 +1993,12 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="24"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="15" t="s">
         <v>34</v>
       </c>
@@ -2011,14 +2013,14 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="24"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>37</v>
@@ -2031,12 +2033,12 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="15" t="s">
         <v>38</v>
       </c>
@@ -2045,16 +2047,16 @@
         <v>29</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="24"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
         <v>39</v>
       </c>
@@ -2063,34 +2065,34 @@
         <v>29</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A21" s="24"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="24"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
@@ -2099,16 +2101,16 @@
         <v>29</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="24"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="15" t="s">
         <v>42</v>
       </c>
@@ -2117,16 +2119,16 @@
         <v>29</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="24"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="15" t="s">
         <v>43</v>
       </c>
@@ -2135,16 +2137,16 @@
         <v>29</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="24"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="15" t="s">
         <v>44</v>
       </c>
@@ -2157,12 +2159,12 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="24"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="15" t="s">
         <v>45</v>
       </c>
@@ -2171,16 +2173,16 @@
         <v>29</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="24"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="15" t="s">
         <v>46</v>
       </c>
@@ -2189,16 +2191,16 @@
         <v>29</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="24"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
@@ -2213,12 +2215,12 @@
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="24"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="15" t="s">
         <v>50</v>
       </c>
@@ -2231,12 +2233,12 @@
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="24"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="15" t="s">
         <v>51</v>
       </c>
@@ -2251,12 +2253,12 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="24"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="15" t="s">
         <v>54</v>
       </c>
@@ -2274,7 +2276,7 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A32" s="24"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="15" t="s">
         <v>57</v>
       </c>
@@ -2285,88 +2287,88 @@
         <v>29</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="27" t="s">
-        <v>135</v>
+      <c r="E33" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="26" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>136</v>
+      <c r="E34" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="24"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A36" s="26"/>
+      <c r="B36" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>138</v>
+      <c r="E36" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="23" t="s">
-        <v>65</v>
+      <c r="A37" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
@@ -2377,41 +2379,41 @@
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="24"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="27" t="s">
-        <v>170</v>
+      <c r="E39" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -2419,86 +2421,86 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A40" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A42" s="24"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A43" s="24"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="24"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
@@ -2509,137 +2511,137 @@
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="23" t="s">
-        <v>84</v>
+      <c r="A46" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A47" s="24"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="25"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A49" s="23" t="s">
-        <v>88</v>
+      <c r="A49" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A50" s="24"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A51" s="25"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A52" s="20" t="s">
-        <v>139</v>
+      <c r="A52" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="14"/>
@@ -2648,9 +2650,9 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A53" s="21"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="14"/>
@@ -2659,9 +2661,9 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A54" s="22"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2671,72 +2673,72 @@
     </row>
     <row r="57" spans="1:7" ht="23.25" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="23.25" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="23.25" customHeight="1">
       <c r="B59" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="23.25" customHeight="1">
       <c r="B60" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="23.25" customHeight="1">
       <c r="B61" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="23.25" customHeight="1">
       <c r="B64" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="23.25" customHeight="1">
       <c r="B65" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="23.25" customHeight="1">
       <c r="B66" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="23.25" customHeight="1">
       <c r="B67" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="23.25" customHeight="1">
       <c r="B68" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="23.25" customHeight="1">
       <c r="B69" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2773,50 +2775,50 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2831,47 +2833,47 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -2881,12 +2883,12 @@
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -2901,12 +2903,12 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -2916,17 +2918,17 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -2966,22 +2968,22 @@
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -3021,72 +3023,72 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
